--- a/test/test_sequences/test_saved_stats/test_stats_sequence_7.xlsx
+++ b/test/test_sequences/test_saved_stats/test_stats_sequence_7.xlsx
@@ -513,7 +513,7 @@
         <v>0.875</v>
       </c>
       <c r="K2" t="n">
-        <v>827.3635554012055</v>
+        <v>2742.413778650722</v>
       </c>
     </row>
   </sheetData>
